--- a/ruby/transpose/transpose.xlsx
+++ b/ruby/transpose/transpose.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\ruby\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vendeur10\Exercism\ruby\transpose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BAB979-4318-4565-92B5-20E5CFAE52F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6A4246-C77D-4D23-BFA0-D7468998833E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-15" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{26D12A07-EC87-404F-8061-D1DC9D0E070C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
   <si>
     <t>The fourth line.</t>
   </si>
@@ -57,16 +57,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
     <t>o</t>
   </si>
   <si>
     <t>i</t>
-  </si>
-  <si>
-    <t>u</t>
   </si>
   <si>
     <t>r</t>
@@ -483,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -500,27 +494,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <f>MID(B$2,$A3,1)</f>
+        <f t="shared" ref="B3:G3" si="0">MID(B$2,$A3,1)</f>
         <v>T</v>
       </c>
       <c r="C3" t="str">
-        <f>MID(C$2,$A3,1)</f>
+        <f t="shared" si="0"/>
         <v>T</v>
       </c>
       <c r="D3" t="str">
-        <f>MID(D$2,$A3,1)</f>
+        <f t="shared" si="0"/>
         <v>T</v>
       </c>
       <c r="E3" t="str">
-        <f>MID(E$2,$A3,1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="F3" t="str">
-        <f>MID(F$2,$A3,1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="G3" t="str">
-        <f>MID(G$2,$A3,1)</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
@@ -533,23 +527,23 @@
         <v>h</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C19" si="0">MID($C$2,A4,1)</f>
+        <f t="shared" ref="C4:C19" si="1">MID($C$2,A4,1)</f>
         <v>h</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:G19" si="1">MID(D$2,$A4,1)</f>
+        <f t="shared" ref="D4:G19" si="2">MID(D$2,$A4,1)</f>
         <v>h</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -558,27 +552,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5:B19" si="2">MID($B$2,A5,1)</f>
+        <f t="shared" ref="B5:B19" si="3">MID($B$2,A5,1)</f>
         <v>e</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>e</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>l</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>l</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>l</v>
       </c>
     </row>
@@ -587,27 +581,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>o</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>o</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>i</v>
       </c>
     </row>
@@ -616,27 +610,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>f</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>l</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n</v>
       </c>
     </row>
@@ -645,27 +639,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>i</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>o</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>g</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>g</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>e</v>
       </c>
     </row>
@@ -674,27 +668,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>u</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>f</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>e</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.</v>
       </c>
     </row>
@@ -703,27 +697,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>r</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>t</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>g</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>l</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>r</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -732,27 +726,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>t</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>h</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>e</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>i</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -761,27 +755,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>h</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>l</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -790,27 +784,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>l</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>t</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>e</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>i</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -819,27 +813,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>l</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>i</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -848,27 +842,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>i</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>n</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>l</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>e</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -877,27 +871,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>e</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>i</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -906,27 +900,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>e</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -935,27 +929,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>.</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>e</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -964,27 +958,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>.</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -995,9 +989,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E47CC71-ACC3-44FB-BB20-C6CD4804760E}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1015,308 +1011,202 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
         <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>16</v>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
